--- a/2.9.Variance-exercise.xlsx
+++ b/2.9.Variance-exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Downloads/The Data Science Course 2021 - All Resources/Part_3_Statistics/S15_L86/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/Excel Work/365-Data-Science-Course-Excel-Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC590F-E190-A24C-84B8-0FF6C78A011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309CD47-F3E8-3545-B272-BD278DBCA650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variance" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mean</t>
   </si>
@@ -81,13 +81,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>variance s^2= 148,259,343,929.29</t>
-  </si>
-  <si>
     <t>Generally this tells us the dispersion of a set of data points around the mean</t>
   </si>
   <si>
     <t xml:space="preserve">"Great dispersion between the income of different people in the USA" </t>
+  </si>
+  <si>
+    <t>sample variance =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population variance = </t>
   </si>
 </sst>
 </file>
@@ -214,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -652,7 +655,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="5">
         <v>54330</v>
       </c>
@@ -662,10 +665,14 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <f>_xlfn.VAR.S(B12:B22)</f>
+        <v>133433409536.36362</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="5">
         <v>64000</v>
       </c>
@@ -675,10 +682,10 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5">
         <v>51000</v>
       </c>
@@ -688,10 +695,10 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="5">
         <v>55000</v>
       </c>
@@ -701,7 +708,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5">
         <v>48000</v>
       </c>
@@ -711,7 +718,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>53000</v>
       </c>
@@ -721,11 +728,11 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="1">
-        <f>_xlfn.VAR.S(B12:B22)</f>
-        <v>133433409536.36362</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,12 +741,15 @@
         <v>1334334095363.6362</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24" s="12">
         <f>C23/10</f>
         <v>133433409536.36362</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
         <f>_xlfn.VAR.P(B12:B22)</f>
         <v>121303099578.51239</v>
       </c>
